--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2020.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2020.xlsx
@@ -384,7 +384,7 @@
         <v>181.285</v>
       </c>
       <c r="C2">
-        <v>138.3809282136344</v>
+        <v>142.6352067499319</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>13.583</v>
       </c>
       <c r="C3">
-        <v>10.36836002937803</v>
+        <v>10.68711704379472</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>8.565</v>
       </c>
       <c r="C4">
-        <v>6.537952120416903</v>
+        <v>6.738949972767558</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>19.922</v>
       </c>
       <c r="C5">
-        <v>15.20713159870935</v>
+        <v>15.67464814448048</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>49.555</v>
       </c>
       <c r="C6">
-        <v>37.82699560154812</v>
+        <v>38.9899201284876</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>15.33</v>
       </c>
       <c r="C7">
-        <v>11.70190379521204</v>
+        <v>12.06165826999728</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>11.539</v>
       </c>
       <c r="C8">
-        <v>8.808106190016421</v>
+        <v>9.078895941128414</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>35.707</v>
       </c>
       <c r="C9">
-        <v>27.25635217323133</v>
+        <v>28.09430083801649</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>55.917</v>
       </c>
       <c r="C10">
-        <v>42.68332384324017</v>
+        <v>43.99554765058303</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>12.354</v>
       </c>
       <c r="C11">
-        <v>9.430223058450721</v>
+        <v>9.720138699774713</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>5.019</v>
       </c>
       <c r="C12">
-        <v>3.831171242542025</v>
+        <v>3.948953871958013</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>9.231999999999999</v>
       </c>
       <c r="C13">
-        <v>7.047095618877857</v>
+        <v>7.263746193647413</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>2.181</v>
       </c>
       <c r="C14">
-        <v>1.66483053994504</v>
+        <v>1.71601283019335</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>2.118</v>
       </c>
       <c r="C15">
-        <v>1.616740524348278</v>
+        <v>1.666444371549526</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>26.821</v>
       </c>
       <c r="C16">
-        <v>20.47336997334522</v>
+        <v>21.10278776644468</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>24.758</v>
       </c>
       <c r="C17">
-        <v>18.89861279594649</v>
+        <v>19.47961744609215</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>12.754</v>
       </c>
       <c r="C18">
-        <v>9.735556490811113</v>
+        <v>10.03485907211646</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>1.398</v>
       </c>
       <c r="C19">
-        <v>1.067140346099572</v>
+        <v>1.099947701334389</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>37.794</v>
       </c>
       <c r="C20">
-        <v>28.84942935657168</v>
+        <v>29.73635438070952</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>97.82599999999999</v>
       </c>
       <c r="C21">
-        <v>74.67387088521937</v>
+        <v>76.96958786175821</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>18.386</v>
       </c>
       <c r="C22">
-        <v>14.03465121844544</v>
+        <v>14.46612191468819</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>0.297</v>
       </c>
       <c r="C23">
-        <v>0.2267100735275914</v>
+        <v>0.2336798764637437</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>3.281</v>
       </c>
       <c r="C24">
-        <v>2.504497478936119</v>
+        <v>2.581493854133142</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>34.537</v>
       </c>
       <c r="C25">
-        <v>26.36325188357719</v>
+        <v>27.17374374891689</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>8.827999999999999</v>
       </c>
       <c r="C26">
-        <v>6.738708852193862</v>
+        <v>6.945878617582254</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>0.659</v>
       </c>
       <c r="C27">
-        <v>0.5030368298137466</v>
+        <v>0.5185018134330206</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>13.758</v>
       </c>
       <c r="C28">
-        <v>10.5019434060357</v>
+        <v>10.82480720669423</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>31.477</v>
       </c>
       <c r="C29">
-        <v>24.02745112602019</v>
+        <v>24.76613290050257</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>12.786</v>
       </c>
       <c r="C30">
-        <v>9.759983165399944</v>
+        <v>10.0600367019038</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>16.558</v>
       </c>
       <c r="C31">
-        <v>12.63927743255845</v>
+        <v>13.02784981308642</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>4.58</v>
       </c>
       <c r="C32">
-        <v>3.496067800526494</v>
+        <v>3.603548263312951</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>2.348</v>
       </c>
       <c r="C33">
-        <v>1.792307247955504</v>
+        <v>1.847408585646028</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>6.431</v>
       </c>
       <c r="C34">
-        <v>4.90899825877421</v>
+        <v>5.059916786324363</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>3.085</v>
       </c>
       <c r="C35">
-        <v>2.354884097079527</v>
+        <v>2.427280871685688</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>110.098</v>
       </c>
       <c r="C36">
-        <v>84.04150059003624</v>
+        <v>86.62520888520288</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>10.421</v>
       </c>
       <c r="C37">
-        <v>7.954699246569125</v>
+        <v>8.199252500433243</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>32.49</v>
       </c>
       <c r="C38">
-        <v>24.80070804347288</v>
+        <v>25.56316224345803</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>6.524</v>
       </c>
       <c r="C39">
-        <v>4.979988281798001</v>
+        <v>5.133089272893819</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>4.521</v>
       </c>
       <c r="C40">
-        <v>3.451031119253336</v>
+        <v>3.557127008392543</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>16.225</v>
       </c>
       <c r="C41">
-        <v>12.38508735011842</v>
+        <v>12.76584510311193</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>1.058</v>
       </c>
       <c r="C42">
-        <v>0.8076069285932381</v>
+        <v>0.8324353848439085</v>
       </c>
     </row>
     <row r="43">
@@ -917,7 +917,7 @@
         <v>7.426</v>
       </c>
       <c r="C43">
-        <v>5.668515171770686</v>
+        <v>5.842783712524447</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         <v>30.566</v>
       </c>
       <c r="C44">
-        <v>260</v>
+        <v>237.25</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2020.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2020.xlsx
@@ -384,7 +384,7 @@
         <v>181.285</v>
       </c>
       <c r="C2">
-        <v>142.6352067499319</v>
+        <v>141.58241910315</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>13.583</v>
       </c>
       <c r="C3">
-        <v>10.68711704379472</v>
+        <v>10.60823564375479</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>8.565</v>
       </c>
       <c r="C4">
-        <v>6.738949972767558</v>
+        <v>6.689209915980248</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>19.922</v>
       </c>
       <c r="C5">
-        <v>15.67464814448048</v>
+        <v>15.55895387579201</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>49.555</v>
       </c>
       <c r="C6">
-        <v>38.9899201284876</v>
+        <v>38.70213629730312</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>15.33</v>
       </c>
       <c r="C7">
-        <v>12.06165826999728</v>
+        <v>11.97263140828689</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>11.539</v>
       </c>
       <c r="C8">
-        <v>9.078895941128414</v>
+        <v>9.011884789316531</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>35.707</v>
       </c>
       <c r="C9">
-        <v>28.09430083801649</v>
+        <v>27.88693735784083</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>55.917</v>
       </c>
       <c r="C10">
-        <v>43.99554765058303</v>
+        <v>43.67081738142062</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>12.354</v>
       </c>
       <c r="C11">
-        <v>9.720138699774713</v>
+        <v>9.648394547813192</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>5.019</v>
       </c>
       <c r="C12">
-        <v>3.948953871958013</v>
+        <v>3.919806721343242</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>9.231999999999999</v>
       </c>
       <c r="C13">
-        <v>7.263746193647413</v>
+        <v>7.210132626308191</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>2.181</v>
       </c>
       <c r="C14">
-        <v>1.71601283019335</v>
+        <v>1.703346973351188</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>2.118</v>
       </c>
       <c r="C15">
-        <v>1.666444371549526</v>
+        <v>1.654144378522611</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>26.821</v>
       </c>
       <c r="C16">
-        <v>21.10278776644468</v>
+        <v>20.94702850630546</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>24.758</v>
       </c>
       <c r="C17">
-        <v>19.47961744609215</v>
+        <v>19.33583877406176</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>12.754</v>
       </c>
       <c r="C18">
-        <v>10.03485907211646</v>
+        <v>9.960791975296218</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>1.398</v>
       </c>
       <c r="C19">
-        <v>1.099947701334389</v>
+        <v>1.091829009053168</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>37.794</v>
       </c>
       <c r="C20">
-        <v>29.73635438070952</v>
+        <v>29.51687093573351</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>97.82599999999999</v>
       </c>
       <c r="C21">
-        <v>76.96958786175821</v>
+        <v>76.40147685238573</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>18.386</v>
       </c>
       <c r="C22">
-        <v>14.46612191468819</v>
+        <v>14.35934775425719</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>0.297</v>
       </c>
       <c r="C23">
-        <v>0.2336798764637437</v>
+        <v>0.2319550899061452</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>3.281</v>
       </c>
       <c r="C24">
-        <v>2.581493854133142</v>
+        <v>2.562439898929504</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>34.537</v>
       </c>
       <c r="C25">
-        <v>27.17374374891689</v>
+        <v>26.97317488245299</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>8.827999999999999</v>
       </c>
       <c r="C26">
-        <v>6.945878617582254</v>
+        <v>6.894611224550338</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>0.659</v>
       </c>
       <c r="C27">
-        <v>0.5185018134330206</v>
+        <v>0.5146747617782819</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>13.758</v>
       </c>
       <c r="C28">
-        <v>10.82480720669423</v>
+        <v>10.74490951827861</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>31.477</v>
       </c>
       <c r="C29">
-        <v>24.76613290050257</v>
+        <v>24.58333456220786</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>12.786</v>
       </c>
       <c r="C30">
-        <v>10.0600367019038</v>
+        <v>9.985783769494859</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>16.558</v>
       </c>
       <c r="C31">
-        <v>13.02784981308642</v>
+        <v>12.93169151065977</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>4.58</v>
       </c>
       <c r="C32">
-        <v>3.603548263312951</v>
+        <v>3.576950544680624</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>2.348</v>
       </c>
       <c r="C33">
-        <v>1.847408585646028</v>
+        <v>1.83377289932535</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>6.431</v>
       </c>
       <c r="C34">
-        <v>5.059916786324363</v>
+        <v>5.022569640358316</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>3.085</v>
       </c>
       <c r="C35">
-        <v>2.427280871685688</v>
+        <v>2.409365159462822</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>110.098</v>
       </c>
       <c r="C36">
-        <v>86.62520888520288</v>
+        <v>85.98582992756491</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>10.421</v>
       </c>
       <c r="C37">
-        <v>8.199252500433243</v>
+        <v>8.138733979501479</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>32.49</v>
       </c>
       <c r="C38">
-        <v>25.56316224345803</v>
+        <v>25.37448104730862</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>6.524</v>
       </c>
       <c r="C39">
-        <v>5.133089272893819</v>
+        <v>5.09520204224812</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>4.521</v>
       </c>
       <c r="C40">
-        <v>3.557127008392543</v>
+        <v>3.530871924126878</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>16.225</v>
       </c>
       <c r="C41">
-        <v>12.76584510311193</v>
+        <v>12.67162065228016</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>1.058</v>
       </c>
       <c r="C42">
-        <v>0.8324353848439085</v>
+        <v>0.8262911956925982</v>
       </c>
     </row>
     <row r="43">
@@ -917,7 +917,7 @@
         <v>7.426</v>
       </c>
       <c r="C43">
-        <v>5.842783712524447</v>
+        <v>5.799658241222338</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         <v>30.566</v>
       </c>
       <c r="C44">
-        <v>237.25</v>
+        <v>242.879842700693</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2020.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2020.xlsx
@@ -384,7 +384,7 @@
         <v>181.285</v>
       </c>
       <c r="C2">
-        <v>142.6352067499319</v>
+        <v>141.2326973423613</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>13.583</v>
       </c>
       <c r="C3">
-        <v>10.68711704379472</v>
+        <v>10.58203231376724</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>8.565</v>
       </c>
       <c r="C4">
-        <v>6.738949972767558</v>
+        <v>6.672686944520089</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>19.922</v>
       </c>
       <c r="C5">
-        <v>15.67464814448048</v>
+        <v>15.52052181070978</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>49.555</v>
       </c>
       <c r="C6">
-        <v>38.9899201284876</v>
+        <v>38.60653841630975</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>15.33</v>
       </c>
       <c r="C7">
-        <v>12.06165826999728</v>
+        <v>11.94305789369445</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>11.539</v>
       </c>
       <c r="C8">
-        <v>9.078895941128414</v>
+        <v>8.989624594607976</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>35.707</v>
       </c>
       <c r="C9">
-        <v>28.09430083801649</v>
+        <v>27.81805402544995</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>55.917</v>
       </c>
       <c r="C10">
-        <v>43.99554765058303</v>
+        <v>43.56294639541505</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>12.354</v>
       </c>
       <c r="C11">
-        <v>9.720138699774713</v>
+        <v>9.624562114722847</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>5.019</v>
       </c>
       <c r="C12">
-        <v>3.948953871958013</v>
+        <v>3.910124433689006</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>9.231999999999999</v>
       </c>
       <c r="C13">
-        <v>7.263746193647413</v>
+        <v>7.192322927239867</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>2.181</v>
       </c>
       <c r="C14">
-        <v>1.71601283019335</v>
+        <v>1.699139547693908</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>2.118</v>
       </c>
       <c r="C15">
-        <v>1.666444371549526</v>
+        <v>1.650058487856807</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>26.821</v>
       </c>
       <c r="C16">
-        <v>21.10278776644468</v>
+        <v>20.89528739509321</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>24.758</v>
       </c>
       <c r="C17">
-        <v>19.47961744609215</v>
+        <v>19.28807745153863</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>12.754</v>
       </c>
       <c r="C18">
-        <v>10.03485907211646</v>
+        <v>9.936187891466343</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>1.398</v>
       </c>
       <c r="C19">
-        <v>1.099947701334389</v>
+        <v>1.089132089718515</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>37.794</v>
       </c>
       <c r="C20">
-        <v>29.73635438070952</v>
+        <v>29.44396151560914</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>97.82599999999999</v>
       </c>
       <c r="C21">
-        <v>76.96958786175821</v>
+        <v>76.21275808927288</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>18.386</v>
       </c>
       <c r="C22">
-        <v>14.46612191468819</v>
+        <v>14.32387882801475</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>0.297</v>
       </c>
       <c r="C23">
-        <v>0.2336798764637437</v>
+        <v>0.2313821392320451</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>3.281</v>
       </c>
       <c r="C24">
-        <v>2.581493854133142</v>
+        <v>2.556110433738519</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>34.537</v>
       </c>
       <c r="C25">
-        <v>27.17374374891689</v>
+        <v>26.90654862847523</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>8.827999999999999</v>
       </c>
       <c r="C26">
-        <v>6.945878617582254</v>
+        <v>6.877580892728938</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>0.659</v>
       </c>
       <c r="C27">
-        <v>0.5185018134330206</v>
+        <v>0.5134034671849083</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>13.758</v>
       </c>
       <c r="C28">
-        <v>10.82480720669423</v>
+        <v>10.71836859109252</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>31.477</v>
       </c>
       <c r="C29">
-        <v>24.76613290050257</v>
+        <v>24.5226114363875</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>12.786</v>
       </c>
       <c r="C30">
-        <v>10.0600367019038</v>
+        <v>9.961117953605823</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>16.558</v>
       </c>
       <c r="C31">
-        <v>13.02784981308642</v>
+        <v>12.89974902829698</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>4.58</v>
       </c>
       <c r="C32">
-        <v>3.603548263312951</v>
+        <v>3.56811514371302</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>2.348</v>
       </c>
       <c r="C33">
-        <v>1.847408585646028</v>
+        <v>1.829243309484316</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>6.431</v>
       </c>
       <c r="C34">
-        <v>5.059916786324363</v>
+        <v>5.010163425593543</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>3.085</v>
       </c>
       <c r="C35">
-        <v>2.427280871685688</v>
+        <v>2.403413803134206</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>110.098</v>
       </c>
       <c r="C36">
-        <v>86.62520888520288</v>
+        <v>85.77343691976333</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>10.421</v>
       </c>
       <c r="C37">
-        <v>8.199252500433243</v>
+        <v>8.118630548609907</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>32.49</v>
       </c>
       <c r="C38">
-        <v>25.56316224345803</v>
+        <v>25.3118037159904</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>6.524</v>
       </c>
       <c r="C39">
-        <v>5.133089272893819</v>
+        <v>5.082616418686406</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>4.521</v>
       </c>
       <c r="C40">
-        <v>3.557127008392543</v>
+        <v>3.522150341643354</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>16.225</v>
       </c>
       <c r="C41">
-        <v>12.76584510311193</v>
+        <v>12.64032056915802</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>1.058</v>
       </c>
       <c r="C42">
-        <v>0.8324353848439085</v>
+        <v>0.8242501794865447</v>
       </c>
     </row>
     <row r="43">
@@ -917,7 +917,7 @@
         <v>7.426</v>
       </c>
       <c r="C43">
-        <v>5.842783712524447</v>
+        <v>5.785332545242987</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         <v>30.566</v>
       </c>
       <c r="C44">
-        <v>237.25</v>
+        <v>244.75</v>
       </c>
     </row>
   </sheetData>
